--- a/diagrams/charts.xlsx
+++ b/diagrams/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Saskia/srt/robinhood/diagrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77880EDF-4997-1A46-992D-7634A3FBAABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F65533-72CF-A74C-9227-A8CD3994AB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{F679AB64-EDC8-C047-9D6C-1136F102E42F}"/>
   </bookViews>
@@ -191,12 +191,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -376,7 +375,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2397</c:v>
@@ -515,7 +514,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -723,7 +722,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -864,7 +863,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
@@ -1005,7 +1004,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
@@ -4933,8 +4932,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5333,13 +5332,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A631C73-2369-5B4A-B5AA-56C0120E7A1D}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5368,16 +5368,16 @@
       <c r="A3" s="2">
         <v>44217</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>2397</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>0.35199999999999998</v>
       </c>
     </row>
@@ -5385,16 +5385,16 @@
       <c r="A4" s="2">
         <v>44218</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>2982</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.505</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>0.34699999999999998</v>
       </c>
     </row>
@@ -5402,16 +5402,16 @@
       <c r="A5" s="2">
         <v>44219</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>1707</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>0.183</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0.55100000000000005</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>0.26600000000000001</v>
       </c>
     </row>
@@ -5419,16 +5419,16 @@
       <c r="A6" s="2">
         <v>44220</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>1818</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>0.16300000000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0.55300000000000005</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>0.28399999999999997</v>
       </c>
     </row>
@@ -5436,16 +5436,16 @@
       <c r="A7" s="2">
         <v>44221</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>4482</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>0.186</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>0.47499999999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0.33900000000000002</v>
       </c>
     </row>
@@ -5453,16 +5453,16 @@
       <c r="A8" s="2">
         <v>44222</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>5632</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>0.2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>0.501</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>0.29899999999999999</v>
       </c>
     </row>
@@ -5470,16 +5470,16 @@
       <c r="A9" s="2">
         <v>44223</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>34710</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>0.248</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>0.45</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>0.30199999999999999</v>
       </c>
     </row>
@@ -5487,16 +5487,16 @@
       <c r="A10" s="2">
         <v>44224</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>574026</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>0.41499999999999998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>0.3</v>
       </c>
     </row>
@@ -5504,16 +5504,16 @@
       <c r="A11" s="2">
         <v>44225</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>254615</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>0.34200000000000003</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0.35199999999999998</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>0.30599999999999999</v>
       </c>
     </row>
@@ -5521,16 +5521,16 @@
       <c r="A12" s="2">
         <v>44226</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>1498499</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>0.35599999999999998</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>0.35</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>0.29399999999999998</v>
       </c>
     </row>
@@ -5538,16 +5538,16 @@
       <c r="A13" s="2">
         <v>44227</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>28022</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>0.38300000000000001</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>0.28199999999999997</v>
       </c>
     </row>
@@ -5555,16 +5555,16 @@
       <c r="A14" s="2">
         <v>44228</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>27966</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>0.35599999999999998</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>0.33100000000000002</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>0.313</v>
       </c>
     </row>
@@ -5572,16 +5572,16 @@
       <c r="A15" s="2">
         <v>44229</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>28397</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.32800000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>0.318</v>
       </c>
     </row>
@@ -5589,16 +5589,16 @@
       <c r="A16" s="2">
         <v>44230</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>18045</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>0.34200000000000003</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>0.30199999999999999</v>
       </c>
     </row>
@@ -5606,16 +5606,16 @@
       <c r="A17" s="2">
         <v>44231</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>19850</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>0.27100000000000002</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>0.436</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>0.29299999999999998</v>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
       <c r="A20" s="2">
         <v>44217</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>472</v>
       </c>
       <c r="C20" s="3">
@@ -5648,7 +5648,7 @@
       <c r="A21" s="2">
         <v>44218</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>505</v>
       </c>
       <c r="C21" s="3">
@@ -5662,7 +5662,7 @@
       <c r="A22" s="2">
         <v>44219</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>551</v>
       </c>
       <c r="C22" s="3">
@@ -5676,7 +5676,7 @@
       <c r="A23" s="2">
         <v>44220</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>553</v>
       </c>
       <c r="C23" s="3">
@@ -5690,7 +5690,7 @@
       <c r="A24" s="2">
         <v>44221</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>475</v>
       </c>
       <c r="C24" s="3">
@@ -5704,7 +5704,7 @@
       <c r="A25" s="2">
         <v>44222</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>501</v>
       </c>
       <c r="C25" s="3">
@@ -5718,7 +5718,7 @@
       <c r="A26" s="2">
         <v>44223</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>450</v>
       </c>
       <c r="C26" s="3">
@@ -5732,7 +5732,7 @@
       <c r="A27" s="2">
         <v>44224</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>285</v>
       </c>
       <c r="C27" s="3">
@@ -5746,7 +5746,7 @@
       <c r="A28" s="2">
         <v>44225</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>352</v>
       </c>
       <c r="C28" s="3">
@@ -5760,7 +5760,7 @@
       <c r="A29" s="2">
         <v>44226</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>350</v>
       </c>
       <c r="C29" s="3">
@@ -5774,7 +5774,7 @@
       <c r="A30" s="2">
         <v>44227</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>383</v>
       </c>
       <c r="C30" s="3">
@@ -5788,7 +5788,7 @@
       <c r="A31" s="2">
         <v>44228</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>331</v>
       </c>
       <c r="C31" s="3">
@@ -5802,7 +5802,7 @@
       <c r="A32" s="2">
         <v>44229</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>328</v>
       </c>
       <c r="C32" s="3">
@@ -5816,7 +5816,7 @@
       <c r="A33" s="2">
         <v>44230</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>356</v>
       </c>
       <c r="C33" s="3">
@@ -5830,7 +5830,7 @@
       <c r="A34" s="2">
         <v>44231</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>436</v>
       </c>
       <c r="C34" s="3">
@@ -5878,13 +5878,13 @@
       <c r="E40" s="2">
         <v>44217</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>2</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>1</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5898,13 +5898,13 @@
       <c r="E41" s="2">
         <v>44218</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>3</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>0</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5918,13 +5918,13 @@
       <c r="E42" s="2">
         <v>44219</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>0</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5941,13 +5941,13 @@
       <c r="E43" s="2">
         <v>44220</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>0</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>2</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5961,13 +5961,13 @@
       <c r="E44" s="2">
         <v>44221</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>0</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>2</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5981,13 +5981,13 @@
       <c r="E45" s="2">
         <v>44222</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>0</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>2</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6004,13 +6004,13 @@
       <c r="E46" s="2">
         <v>44223</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>2</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>0</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6024,13 +6024,13 @@
       <c r="E47" s="2">
         <v>44224</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>2</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>1</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6044,13 +6044,13 @@
       <c r="E48" s="2">
         <v>44225</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>1</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>2</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6067,13 +6067,13 @@
       <c r="E49" s="2">
         <v>44226</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>2</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6087,13 +6087,13 @@
       <c r="E50" s="2">
         <v>44227</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>0</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>2</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6107,13 +6107,13 @@
       <c r="E51" s="2">
         <v>44228</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>0</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>2</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6130,13 +6130,13 @@
       <c r="E52" s="2">
         <v>44229</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>1</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>1</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6150,13 +6150,13 @@
       <c r="E53" s="2">
         <v>44230</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>0</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>2</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6170,13 +6170,13 @@
       <c r="E54" s="2">
         <v>44231</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>2</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <v>1</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <v>0</v>
       </c>
     </row>

--- a/diagrams/charts.xlsx
+++ b/diagrams/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Saskia/srt/robinhood/diagrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F65533-72CF-A74C-9227-A8CD3994AB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D8C16B-D26F-0744-962B-00D37F3EDBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{F679AB64-EDC8-C047-9D6C-1136F102E42F}"/>
   </bookViews>
@@ -317,6 +317,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$17</c:f>
@@ -432,8 +490,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -496,6 +555,7 @@
       <c:valAx>
         <c:axId val="267913615"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -514,6 +574,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Tweets with a logaritmic scale</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of 10</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4890,14 +5010,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5332,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A631C73-2369-5B4A-B5AA-56C0120E7A1D}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
